--- a/Team-Data/2016-17/2016-10-25.xlsx
+++ b/Team-Data/2016-17/2016-10-25.xlsx
@@ -563,272 +563,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF7"/>
+  <dimension ref="A1:BE7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:57">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57">
+      <c r="A2">
+        <v>1610612739</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>48</v>
+      </c>
+      <c r="H2">
+        <v>45</v>
+      </c>
+      <c r="I2">
+        <v>94</v>
+      </c>
+      <c r="J2">
+        <v>0.479</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>35</v>
+      </c>
+      <c r="M2">
+        <v>0.371</v>
+      </c>
+      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2">
+        <v>0.737</v>
+      </c>
+      <c r="Q2">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R2">
+        <v>40</v>
+      </c>
+      <c r="S2">
+        <v>51</v>
+      </c>
+      <c r="T2">
+        <v>31</v>
+      </c>
+      <c r="U2">
+        <v>15</v>
+      </c>
+      <c r="V2">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>6</v>
+      </c>
+      <c r="Y2">
         <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1610612739</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>48</v>
-      </c>
-      <c r="I2">
-        <v>45</v>
-      </c>
-      <c r="J2">
-        <v>94</v>
-      </c>
-      <c r="K2">
-        <v>0.479</v>
-      </c>
-      <c r="L2">
-        <v>13</v>
-      </c>
-      <c r="M2">
-        <v>35</v>
-      </c>
-      <c r="N2">
-        <v>0.371</v>
-      </c>
-      <c r="O2">
-        <v>14</v>
-      </c>
-      <c r="P2">
-        <v>19</v>
-      </c>
-      <c r="Q2">
-        <v>0.737</v>
-      </c>
-      <c r="R2">
-        <v>11</v>
-      </c>
-      <c r="S2">
-        <v>40</v>
-      </c>
-      <c r="T2">
-        <v>51</v>
-      </c>
-      <c r="U2">
-        <v>31</v>
-      </c>
-      <c r="V2">
-        <v>15</v>
-      </c>
-      <c r="W2">
-        <v>12</v>
-      </c>
-      <c r="X2">
-        <v>5</v>
-      </c>
-      <c r="Y2">
-        <v>6</v>
       </c>
       <c r="Z2">
         <v>22</v>
       </c>
       <c r="AA2">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="AB2">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="AC2">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -843,171 +843,168 @@
         <v>1</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI2">
         <v>2</v>
       </c>
       <c r="AJ2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY2">
         <v>5</v>
       </c>
       <c r="AZ2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC2">
-        <v>1</v>
-      </c>
-      <c r="BD2">
         <v>10</v>
       </c>
+      <c r="BD2" t="s">
+        <v>57</v>
+      </c>
       <c r="BE2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:57">
+      <c r="A3">
         <v>1610612744</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>58</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>0.471</v>
       </c>
       <c r="K3">
-        <v>0.471</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>0.212</v>
       </c>
       <c r="N3">
-        <v>0.212</v>
+        <v>13</v>
       </c>
       <c r="O3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P3">
-        <v>18</v>
+        <v>0.722</v>
       </c>
       <c r="Q3">
-        <v>0.722</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="S3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="T3">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="U3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="V3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="W3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Z3">
         <v>19</v>
       </c>
       <c r="AA3">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AB3">
-        <v>100</v>
+        <v>-29</v>
       </c>
       <c r="AC3">
-        <v>-29</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE3">
         <v>4</v>
@@ -1016,523 +1013,514 @@
         <v>4</v>
       </c>
       <c r="AG3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AM3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AN3">
         <v>6</v>
       </c>
       <c r="AO3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX3">
         <v>1</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB3">
         <v>5</v>
       </c>
       <c r="BC3">
-        <v>5</v>
-      </c>
-      <c r="BD3">
         <v>10</v>
       </c>
+      <c r="BD3" t="s">
+        <v>58</v>
+      </c>
       <c r="BE3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BF3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:57">
+      <c r="A4">
         <v>1610612752</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>59</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I4">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="J4">
-        <v>87</v>
+        <v>0.368</v>
       </c>
       <c r="K4">
-        <v>0.368</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>0.333</v>
       </c>
       <c r="N4">
-        <v>0.333</v>
+        <v>15</v>
       </c>
       <c r="O4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P4">
-        <v>20</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
-        <v>0.75</v>
+        <v>13</v>
       </c>
       <c r="R4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="S4">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="T4">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="W4">
         <v>6</v>
       </c>
       <c r="X4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="Z4">
         <v>22</v>
       </c>
       <c r="AA4">
+        <v>88</v>
+      </c>
+      <c r="AB4">
+        <v>-29</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>4</v>
+      </c>
+      <c r="AF4">
+        <v>4</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>6</v>
+      </c>
+      <c r="AI4">
+        <v>3</v>
+      </c>
+      <c r="AJ4">
+        <v>6</v>
+      </c>
+      <c r="AK4">
+        <v>4</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4">
+        <v>4</v>
+      </c>
+      <c r="AN4">
+        <v>4</v>
+      </c>
+      <c r="AO4">
+        <v>3</v>
+      </c>
+      <c r="AP4">
+        <v>4</v>
+      </c>
+      <c r="AQ4">
+        <v>2</v>
+      </c>
+      <c r="AR4">
+        <v>3</v>
+      </c>
+      <c r="AS4">
+        <v>3</v>
+      </c>
+      <c r="AT4">
+        <v>6</v>
+      </c>
+      <c r="AU4">
+        <v>6</v>
+      </c>
+      <c r="AV4">
+        <v>5</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>3</v>
+      </c>
+      <c r="AY4">
+        <v>5</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>6</v>
+      </c>
+      <c r="BB4">
+        <v>5</v>
+      </c>
+      <c r="BC4">
+        <v>10</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
+      <c r="A5">
+        <v>1610612757</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <v>39</v>
+      </c>
+      <c r="I5">
+        <v>75</v>
+      </c>
+      <c r="J5">
+        <v>0.52</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>19</v>
+      </c>
+      <c r="M5">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="N5">
         <v>22</v>
-      </c>
-      <c r="AB4">
-        <v>88</v>
-      </c>
-      <c r="AC4">
-        <v>-29</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>4</v>
-      </c>
-      <c r="AF4">
-        <v>4</v>
-      </c>
-      <c r="AG4">
-        <v>4</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>6</v>
-      </c>
-      <c r="AJ4">
-        <v>3</v>
-      </c>
-      <c r="AK4">
-        <v>6</v>
-      </c>
-      <c r="AL4">
-        <v>4</v>
-      </c>
-      <c r="AM4">
-        <v>3</v>
-      </c>
-      <c r="AN4">
-        <v>4</v>
-      </c>
-      <c r="AO4">
-        <v>4</v>
-      </c>
-      <c r="AP4">
-        <v>3</v>
-      </c>
-      <c r="AQ4">
-        <v>4</v>
-      </c>
-      <c r="AR4">
-        <v>2</v>
-      </c>
-      <c r="AS4">
-        <v>3</v>
-      </c>
-      <c r="AT4">
-        <v>3</v>
-      </c>
-      <c r="AU4">
-        <v>6</v>
-      </c>
-      <c r="AV4">
-        <v>6</v>
-      </c>
-      <c r="AW4">
-        <v>5</v>
-      </c>
-      <c r="AX4">
-        <v>1</v>
-      </c>
-      <c r="AY4">
-        <v>3</v>
-      </c>
-      <c r="AZ4">
-        <v>5</v>
-      </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
-      <c r="BB4">
-        <v>6</v>
-      </c>
-      <c r="BC4">
-        <v>5</v>
-      </c>
-      <c r="BD4">
-        <v>10</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1610612757</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>48</v>
-      </c>
-      <c r="I5">
-        <v>39</v>
-      </c>
-      <c r="J5">
-        <v>75</v>
-      </c>
-      <c r="K5">
-        <v>0.52</v>
-      </c>
-      <c r="L5">
-        <v>13</v>
-      </c>
-      <c r="M5">
-        <v>19</v>
-      </c>
-      <c r="N5">
-        <v>0.6840000000000001</v>
       </c>
       <c r="O5">
         <v>22</v>
       </c>
       <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>29</v>
+      </c>
+      <c r="S5">
+        <v>34</v>
+      </c>
+      <c r="T5">
         <v>22</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>5</v>
-      </c>
-      <c r="S5">
-        <v>29</v>
-      </c>
-      <c r="T5">
+      <c r="U5">
+        <v>13</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>18</v>
+      </c>
+      <c r="Z5">
+        <v>19</v>
+      </c>
+      <c r="AA5">
+        <v>113</v>
+      </c>
+      <c r="AB5">
+        <v>9</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
+      </c>
+      <c r="AI5">
+        <v>6</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>6</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>2</v>
+      </c>
+      <c r="AO5">
+        <v>2</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>6</v>
+      </c>
+      <c r="AR5">
+        <v>3</v>
+      </c>
+      <c r="AS5">
+        <v>5</v>
+      </c>
+      <c r="AT5">
+        <v>4</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>6</v>
+      </c>
+      <c r="AW5">
+        <v>5</v>
+      </c>
+      <c r="AX5">
+        <v>3</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>3</v>
+      </c>
+      <c r="BA5">
+        <v>3</v>
+      </c>
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5">
+        <v>10</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
+      <c r="A6">
+        <v>1610612759</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>98</v>
+      </c>
+      <c r="J6">
+        <v>0.48</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>23</v>
+      </c>
+      <c r="O6">
+        <v>26</v>
+      </c>
+      <c r="P6">
+        <v>0.885</v>
+      </c>
+      <c r="Q6">
+        <v>21</v>
+      </c>
+      <c r="R6">
         <v>34</v>
       </c>
-      <c r="U5">
-        <v>22</v>
-      </c>
-      <c r="V5">
+      <c r="S6">
+        <v>55</v>
+      </c>
+      <c r="T6">
+        <v>25</v>
+      </c>
+      <c r="U6">
+        <v>14</v>
+      </c>
+      <c r="V6">
         <v>13</v>
       </c>
-      <c r="W5">
-        <v>5</v>
-      </c>
-      <c r="X5">
-        <v>3</v>
-      </c>
-      <c r="Y5">
-        <v>5</v>
-      </c>
-      <c r="Z5">
-        <v>18</v>
-      </c>
-      <c r="AA5">
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+      <c r="Y6">
         <v>19</v>
-      </c>
-      <c r="AB5">
-        <v>113</v>
-      </c>
-      <c r="AC5">
-        <v>9</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>5</v>
-      </c>
-      <c r="AJ5">
-        <v>6</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>6</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>2</v>
-      </c>
-      <c r="AP5">
-        <v>2</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>6</v>
-      </c>
-      <c r="AS5">
-        <v>3</v>
-      </c>
-      <c r="AT5">
-        <v>5</v>
-      </c>
-      <c r="AU5">
-        <v>4</v>
-      </c>
-      <c r="AV5">
-        <v>1</v>
-      </c>
-      <c r="AW5">
-        <v>6</v>
-      </c>
-      <c r="AX5">
-        <v>5</v>
-      </c>
-      <c r="AY5">
-        <v>3</v>
-      </c>
-      <c r="AZ5">
-        <v>1</v>
-      </c>
-      <c r="BA5">
-        <v>3</v>
-      </c>
-      <c r="BB5">
-        <v>3</v>
-      </c>
-      <c r="BC5">
-        <v>3</v>
-      </c>
-      <c r="BD5">
-        <v>10</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1610612759</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>48</v>
-      </c>
-      <c r="I6">
-        <v>47</v>
-      </c>
-      <c r="J6">
-        <v>98</v>
-      </c>
-      <c r="K6">
-        <v>0.48</v>
-      </c>
-      <c r="L6">
-        <v>12</v>
-      </c>
-      <c r="M6">
-        <v>24</v>
-      </c>
-      <c r="N6">
-        <v>0.5</v>
-      </c>
-      <c r="O6">
-        <v>23</v>
-      </c>
-      <c r="P6">
-        <v>26</v>
-      </c>
-      <c r="Q6">
-        <v>0.885</v>
-      </c>
-      <c r="R6">
-        <v>21</v>
-      </c>
-      <c r="S6">
-        <v>34</v>
-      </c>
-      <c r="T6">
-        <v>55</v>
-      </c>
-      <c r="U6">
-        <v>25</v>
-      </c>
-      <c r="V6">
-        <v>14</v>
-      </c>
-      <c r="W6">
-        <v>13</v>
-      </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6">
-        <v>6</v>
       </c>
       <c r="Z6">
         <v>19</v>
       </c>
       <c r="AA6">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="AB6">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="AC6">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <v>1</v>
@@ -1553,165 +1541,162 @@
         <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK6">
         <v>3</v>
       </c>
       <c r="AL6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO6">
         <v>1</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>2</v>
       </c>
       <c r="AV6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX6">
         <v>5</v>
       </c>
       <c r="AY6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB6">
         <v>1</v>
       </c>
       <c r="BC6">
-        <v>1</v>
-      </c>
-      <c r="BD6">
         <v>10</v>
       </c>
+      <c r="BD6" t="s">
+        <v>61</v>
+      </c>
       <c r="BE6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:57">
+      <c r="A7">
         <v>1610612762</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>62</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I7">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="J7">
-        <v>82</v>
+        <v>0.488</v>
       </c>
       <c r="K7">
-        <v>0.488</v>
+        <v>8</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>0.333</v>
       </c>
       <c r="N7">
-        <v>0.333</v>
+        <v>16</v>
       </c>
       <c r="O7">
         <v>16</v>
       </c>
       <c r="P7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="S7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T7">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="U7">
+        <v>14</v>
+      </c>
+      <c r="V7">
+        <v>9</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
         <v>19</v>
       </c>
-      <c r="V7">
-        <v>14</v>
-      </c>
-      <c r="W7">
-        <v>9</v>
-      </c>
-      <c r="X7">
-        <v>5</v>
-      </c>
-      <c r="Y7">
-        <v>3</v>
-      </c>
       <c r="Z7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="AB7">
-        <v>104</v>
+        <v>-9</v>
       </c>
       <c r="AC7">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE7">
         <v>4</v>
@@ -1720,81 +1705,78 @@
         <v>4</v>
       </c>
       <c r="AG7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM7">
         <v>4</v>
       </c>
       <c r="AN7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AP7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS7">
         <v>6</v>
       </c>
       <c r="AT7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB7">
         <v>4</v>
       </c>
       <c r="BC7">
-        <v>4</v>
-      </c>
-      <c r="BD7">
         <v>10</v>
       </c>
+      <c r="BD7" t="s">
+        <v>62</v>
+      </c>
       <c r="BE7" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF7" t="s">
         <v>63</v>
       </c>
     </row>
